--- a/biology/Biochimie/Dihydroorotase/Dihydroorotase.xlsx
+++ b/biology/Biochimie/Dihydroorotase/Dihydroorotase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dihydroorotase est une hydrolase qui catalyse la réaction :
 (S)-dihydroorotate + H2O  
         ⇌
     {\displaystyle \rightleftharpoons }
   N-carbamyl-L-aspartate.
-Cette enzyme intervient dans la biosynthèse des pyrimidines[2]. Chez l'homme, elle fait partie d'un complexe enzymatique multifonctionnel (Protéine CAD) avec la carbamyl-phosphate synthétase II et l'aspartate carbamyltransférase[1].
+Cette enzyme intervient dans la biosynthèse des pyrimidines. Chez l'homme, elle fait partie d'un complexe enzymatique multifonctionnel (Protéine CAD) avec la carbamyl-phosphate synthétase II et l'aspartate carbamyltransférase.
 </t>
         </is>
       </c>
